--- a/DataExtraction1/baseline.xlsx
+++ b/DataExtraction1/baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\DataExtraction1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE942062-E095-407F-9175-0F34DB6DFD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E888C83-3446-406E-AE6E-F4E996298C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="670" firstSheet="11" activeTab="15" xr2:uid="{9B5862E2-8272-40BA-9400-11932E361623}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" firstSheet="12" activeTab="18" xr2:uid="{9B5862E2-8272-40BA-9400-11932E361623}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump &amp; Pump Curves" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="741">
   <si>
     <t>Name</t>
   </si>
@@ -1556,9 +1556,6 @@
     <t>USD/h</t>
   </si>
   <si>
-    <t>ElectriityUsage</t>
-  </si>
-  <si>
     <t>Reboiler</t>
   </si>
   <si>
@@ -2252,9 +2249,6 @@
     <t>UtilityUsageCost</t>
   </si>
   <si>
-    <t>PackingType2</t>
-  </si>
-  <si>
     <t>PALL</t>
   </si>
   <si>
@@ -2268,6 +2262,21 @@
   </si>
   <si>
     <t>LiquidCompressibility</t>
+  </si>
+  <si>
+    <t>4.4448118686457E-05</t>
+  </si>
+  <si>
+    <t>4.47178884317573E-05</t>
+  </si>
+  <si>
+    <t>6.81333881045848E-07</t>
+  </si>
+  <si>
+    <t>ElectricityUsage</t>
+  </si>
+  <si>
+    <t>PackingType</t>
   </si>
 </sst>
 </file>
@@ -2316,11 +2325,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2669,7 +2679,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3039,7 +3049,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3227,7 +3237,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3622,7 +3632,7 @@
         <v>337</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C29">
         <v>76143.510658327301</v>
@@ -3657,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4074,7 +4084,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4309,7 +4319,7 @@
         <v>384</v>
       </c>
       <c r="B18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C18">
         <v>0.61</v>
@@ -4323,7 +4333,7 @@
         <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C19">
         <v>2.7777777777777801E-3</v>
@@ -4337,7 +4347,7 @@
         <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C20">
         <v>0.65</v>
@@ -4351,7 +4361,7 @@
         <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C21">
         <v>5.5555555555555696E-3</v>
@@ -4365,7 +4375,7 @@
         <v>384</v>
       </c>
       <c r="B22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C22">
         <v>0.68</v>
@@ -4379,7 +4389,7 @@
         <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C23">
         <v>8.3333333333333506E-3</v>
@@ -4393,7 +4403,7 @@
         <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C24">
         <v>0.72</v>
@@ -4407,7 +4417,7 @@
         <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C25">
         <v>1.1111111111111099E-2</v>
@@ -4421,7 +4431,7 @@
         <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C26">
         <v>0.75</v>
@@ -4435,7 +4445,7 @@
         <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C27">
         <v>1.38888888888889E-2</v>
@@ -4449,7 +4459,7 @@
         <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -4463,7 +4473,7 @@
         <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C29">
         <v>1.6666666666666701E-2</v>
@@ -4493,7 +4503,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4510,7 +4520,7 @@
         <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2">
         <v>18613.336719999999</v>
@@ -4524,7 +4534,7 @@
         <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C3">
         <v>-17484.743170000002</v>
@@ -4538,7 +4548,7 @@
         <v>386</v>
       </c>
       <c r="B4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C4">
         <v>341.48333330000003</v>
@@ -4566,7 +4576,7 @@
         <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C6">
         <v>2868334.6519999998</v>
@@ -4580,7 +4590,7 @@
         <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C7">
         <v>357.5994283</v>
@@ -4594,7 +4604,7 @@
         <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4608,7 +4618,7 @@
         <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C9">
         <v>1.3867225599999999</v>
@@ -4622,7 +4632,7 @@
         <v>386</v>
       </c>
       <c r="B10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4633,7 +4643,7 @@
         <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C11">
         <v>18362.216250000001</v>
@@ -4647,7 +4657,7 @@
         <v>386</v>
       </c>
       <c r="B12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C12">
         <v>-21308.492849999999</v>
@@ -4661,7 +4671,7 @@
         <v>386</v>
       </c>
       <c r="B13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C13">
         <v>347.03888890000002</v>
@@ -4675,7 +4685,7 @@
         <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C14">
         <v>0.72</v>
@@ -4689,7 +4699,7 @@
         <v>386</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C15">
         <v>3977584.372</v>
@@ -4703,7 +4713,7 @@
         <v>386</v>
       </c>
       <c r="B16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C16">
         <v>365.44886559999998</v>
@@ -4717,7 +4727,7 @@
         <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4731,7 +4741,7 @@
         <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C18">
         <v>1.3867225599999999</v>
@@ -4745,7 +4755,7 @@
         <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4756,7 +4766,7 @@
         <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C20">
         <v>17764.309689999998</v>
@@ -4770,7 +4780,7 @@
         <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C21">
         <v>-27786.375680000001</v>
@@ -4784,7 +4794,7 @@
         <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C22">
         <v>349.81666669999998</v>
@@ -4798,7 +4808,7 @@
         <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C23">
         <v>0.72</v>
@@ -4812,7 +4822,7 @@
         <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C24">
         <v>5515805.9929999998</v>
@@ -4826,7 +4836,7 @@
         <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C25">
         <v>371.65719940000002</v>
@@ -4840,7 +4850,7 @@
         <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4854,7 +4864,7 @@
         <v>386</v>
       </c>
       <c r="B27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C27">
         <v>1.3867225599999999</v>
@@ -4868,7 +4878,7 @@
         <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4895,7 +4905,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5052,7 +5062,7 @@
         <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C12">
         <v>1.4932475000000001E-2</v>
@@ -5126,7 +5136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2FE76C-F60A-4D90-9047-0F3F8D00258D}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -5138,7 +5148,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5832,7 +5842,7 @@
         <v>389</v>
       </c>
       <c r="B51" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C51">
         <v>1.7523773095930398E-2</v>
@@ -6494,8 +6504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807DC15-71DF-43B1-B9D9-A2D1A025AD5D}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,7 +6516,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6526,7 +6536,7 @@
         <v>390</v>
       </c>
       <c r="C2">
-        <v>1318219.8655699799</v>
+        <v>16841.900639019401</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -6540,7 +6550,7 @@
         <v>392</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,7 +6561,7 @@
         <v>393</v>
       </c>
       <c r="C4">
-        <v>11277473</v>
+        <v>8084000</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -6565,7 +6575,7 @@
         <v>394</v>
       </c>
       <c r="C5">
-        <v>405.6</v>
+        <v>512.5</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -6579,7 +6589,7 @@
         <v>395</v>
       </c>
       <c r="C6">
-        <v>7.2362166000000006E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>396</v>
@@ -6593,7 +6603,7 @@
         <v>397</v>
       </c>
       <c r="C7">
-        <v>1318219.8649325799</v>
+        <v>16841.900639019401</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -6607,7 +6617,7 @@
         <v>399</v>
       </c>
       <c r="C8">
-        <v>-26073572.570462499</v>
+        <v>-263141.86993639398</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -6621,7 +6631,7 @@
         <v>400</v>
       </c>
       <c r="C9">
-        <v>22478829.2927537</v>
+        <v>22663767.6111723</v>
       </c>
       <c r="D9" t="s">
         <v>160</v>
@@ -6635,7 +6645,7 @@
         <v>401</v>
       </c>
       <c r="C10">
-        <v>1.85152671493845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6646,7 +6656,7 @@
         <v>402</v>
       </c>
       <c r="C11">
-        <v>584.82790611880398</v>
+        <v>789.61633836026101</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -6660,7 +6670,7 @@
         <v>403</v>
       </c>
       <c r="C12">
-        <v>-3886165.7653979999</v>
+        <v>-7452337.9733806802</v>
       </c>
       <c r="D12" t="s">
         <v>160</v>
@@ -6674,7 +6684,7 @@
         <v>404</v>
       </c>
       <c r="C13">
-        <v>-10974.569366776101</v>
+        <v>-7507.1499831258798</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -6688,7 +6698,7 @@
         <v>405</v>
       </c>
       <c r="C14">
-        <v>6.7093310333333598</v>
+        <v>3.5309975322686898E-2</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -6702,7 +6712,7 @@
         <v>406</v>
       </c>
       <c r="C15">
-        <v>4696.1433222207897</v>
+        <v>2771.7691561515799</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -6716,7 +6726,7 @@
         <v>407</v>
       </c>
       <c r="C16">
-        <v>2536.3627131768899</v>
+        <v>2771.7691561515799</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -6730,7 +6740,7 @@
         <v>408</v>
       </c>
       <c r="C17">
-        <v>34.339910497294497</v>
+        <v>24.643043364125901</v>
       </c>
       <c r="D17" t="s">
         <v>409</v>
@@ -6744,7 +6754,7 @@
         <v>410</v>
       </c>
       <c r="C18">
-        <v>-66183579.237556599</v>
+        <v>-238789005.71713999</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -6758,7 +6768,7 @@
         <v>411</v>
       </c>
       <c r="C19">
-        <v>-186903.06207504199</v>
+        <v>-240545.30090331699</v>
       </c>
       <c r="D19" t="s">
         <v>341</v>
@@ -6772,7 +6782,7 @@
         <v>412</v>
       </c>
       <c r="C20">
-        <v>0.39395833333333502</v>
+        <v>1.10198486377594E-3</v>
       </c>
       <c r="D20" t="s">
         <v>97</v>
@@ -6786,7 +6796,7 @@
         <v>413</v>
       </c>
       <c r="C21">
-        <v>79977.950617680501</v>
+        <v>88813.470784474106</v>
       </c>
       <c r="D21" t="s">
         <v>341</v>
@@ -6800,7 +6810,7 @@
         <v>414</v>
       </c>
       <c r="C22">
-        <v>17.030560000000001</v>
+        <v>32.042160000000003</v>
       </c>
       <c r="D22" t="s">
         <v>105</v>
@@ -6814,7 +6824,7 @@
         <v>416</v>
       </c>
       <c r="C23">
-        <v>18603616.087785698</v>
+        <v>19917508.682311099</v>
       </c>
       <c r="D23" t="s">
         <v>160</v>
@@ -6828,7 +6838,7 @@
         <v>417</v>
       </c>
       <c r="C24">
-        <v>15690640</v>
+        <v>100000</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -6842,7 +6852,7 @@
         <v>418</v>
       </c>
       <c r="C25">
-        <v>0.3</v>
+        <v>0.79620000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,8 +6862,8 @@
       <c r="B26" t="s">
         <v>419</v>
       </c>
-      <c r="C26">
-        <v>2.10995416250001E-2</v>
+      <c r="C26" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="D26" t="s">
         <v>420</v>
@@ -6867,7 +6877,7 @@
         <v>421</v>
       </c>
       <c r="C27">
-        <v>307.14999999999998</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -6880,8 +6890,8 @@
       <c r="B28" t="s">
         <v>422</v>
       </c>
-      <c r="C28">
-        <v>1.1472316835664799E-2</v>
+      <c r="C28" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -6908,9 +6918,6 @@
       <c r="B30" t="s">
         <v>446</v>
       </c>
-      <c r="C30">
-        <v>1.9327135774063701E-2</v>
-      </c>
       <c r="D30" t="s">
         <v>200</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>447</v>
       </c>
       <c r="C31">
-        <v>1.8797447361850099</v>
+        <v>0.19991985000000001</v>
       </c>
       <c r="D31" t="s">
         <v>214</v>
@@ -6937,7 +6944,7 @@
         <v>448</v>
       </c>
       <c r="C32">
-        <v>1.09485917062475E-4</v>
+        <v>5.3799236435220796E-4</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -6950,8 +6957,8 @@
       <c r="B33" t="s">
         <v>449</v>
       </c>
-      <c r="C33" s="1">
-        <v>1.87210486909004E-7</v>
+      <c r="C33" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="D33" t="s">
         <v>450</v>
@@ -7021,7 +7028,7 @@
         <v>398</v>
       </c>
       <c r="C38">
-        <v>457.36145900204099</v>
+        <v>337.29731733639602</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
@@ -7041,7 +7048,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7059,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7195,7 +7202,7 @@
         <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C11">
         <v>4.7648880000000001E-3</v>
@@ -7223,7 +7230,7 @@
         <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>500</v>
+        <v>739</v>
       </c>
       <c r="C13">
         <v>120695.569</v>
@@ -7304,10 +7311,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" t="s">
         <v>501</v>
-      </c>
-      <c r="B19" t="s">
-        <v>502</v>
       </c>
       <c r="C19">
         <v>2.4413283000000001E-2</v>
@@ -7318,10 +7325,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20">
         <v>1.2145910000000001E-3</v>
@@ -7332,10 +7339,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21">
         <v>412961.01439999999</v>
@@ -7346,10 +7353,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22">
         <v>0.28257417899999998</v>
@@ -7360,10 +7367,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" t="s">
         <v>506</v>
-      </c>
-      <c r="B23" t="s">
-        <v>507</v>
       </c>
       <c r="C23">
         <v>1.628642E-3</v>
@@ -7374,10 +7381,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C24">
         <v>1.089E-4</v>
@@ -7388,10 +7395,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C25">
         <v>-32410.7824</v>
@@ -7402,10 +7409,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C26">
         <v>24.169114409999999</v>
@@ -7419,7 +7426,7 @@
         <v>372</v>
       </c>
       <c r="B27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C27">
         <v>-34855.000399999997</v>
@@ -7433,7 +7440,7 @@
         <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C28">
         <v>34855.000500000002</v>
@@ -7447,7 +7454,7 @@
         <v>372</v>
       </c>
       <c r="B29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C29">
         <v>2.17844E-4</v>
@@ -7465,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D01D4-E3B8-4E46-98EA-2EE36D193E52}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,7 +7485,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7492,10 +7499,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" t="s">
         <v>511</v>
-      </c>
-      <c r="B2" t="s">
-        <v>512</v>
       </c>
       <c r="C2">
         <v>6.2373165299999998E-2</v>
@@ -7506,10 +7513,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3">
         <v>0.92051691800000002</v>
@@ -7520,10 +7527,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4">
         <v>8105.9900793000197</v>
@@ -7534,10 +7541,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5">
         <v>-38920792</v>
@@ -7548,10 +7555,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -7559,10 +7566,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C7">
         <v>200833.33300000001</v>
@@ -7573,10 +7580,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -7584,10 +7591,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C9">
         <v>-3557.35221</v>
@@ -7598,10 +7605,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10">
         <v>500000</v>
@@ -7612,10 +7619,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C11">
         <v>323.14999999999998</v>
@@ -7626,10 +7633,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -7637,10 +7644,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C13">
         <v>2326000</v>
@@ -7651,10 +7658,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C14">
         <v>573.21001100000001</v>
@@ -7665,98 +7672,98 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" t="s">
         <v>525</v>
-      </c>
-      <c r="C15" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" t="s">
         <v>527</v>
-      </c>
-      <c r="C16" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" t="s">
         <v>529</v>
-      </c>
-      <c r="C17" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" t="s">
         <v>531</v>
-      </c>
-      <c r="C18" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7764,10 +7771,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -7775,66 +7782,66 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C25">
         <v>0.86609744499999997</v>
       </c>
       <c r="D25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C26">
         <v>0.122067302</v>
       </c>
       <c r="D26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C27" s="1">
         <v>5.9620266400000006E-8</v>
       </c>
       <c r="D27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C28">
         <v>1.18351932E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C29">
         <v>2.7777777699999999E-2</v>
@@ -7845,10 +7852,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C30">
         <v>1.5836709300000001E-3</v>
@@ -7859,10 +7866,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C31">
         <v>932.63517000000002</v>
@@ -7873,10 +7880,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32">
         <v>17.400174100000001</v>
@@ -7887,10 +7894,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C33">
         <v>51.753261999999999</v>
@@ -7901,10 +7908,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C34">
         <v>-276652137</v>
@@ -7915,10 +7922,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C35">
         <v>0.96556059400000005</v>
@@ -7929,10 +7936,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C36">
         <v>18.020799700000001</v>
@@ -7943,10 +7950,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C37">
         <v>5.5309189199999997E-2</v>
@@ -7957,10 +7964,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C38">
         <v>386.01313900000002</v>
@@ -7971,10 +7978,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C39">
         <v>2.4139418700000001E-4</v>
@@ -7985,10 +7992,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C40">
         <v>180000</v>
@@ -7999,10 +8006,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C41">
         <v>386.01313900000002</v>
@@ -8013,10 +8020,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C42">
         <v>16.445116800000001</v>
@@ -8027,10 +8034,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43">
         <v>5.6699241900000003E-2</v>
@@ -8041,10 +8048,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C44">
         <v>-212266501</v>
@@ -8055,10 +8062,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45">
         <v>0.90935970200000005</v>
@@ -8069,10 +8076,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C46">
         <v>18.020012600000001</v>
@@ -8083,10 +8090,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C47">
         <v>390.39805200000001</v>
@@ -8097,10 +8104,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C48" s="1">
         <v>1.3240277599999999E-5</v>
@@ -8111,10 +8118,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B49" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C49">
         <v>16.850187500000001</v>
@@ -8125,10 +8132,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C50">
         <v>1.2599788000000001E-2</v>
@@ -8139,10 +8146,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B51" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C51">
         <v>6.9938974099999999E-4</v>
@@ -8153,10 +8160,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C52">
         <v>17.4717582</v>
@@ -8167,10 +8174,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C53">
         <v>0.96983426399999995</v>
@@ -8181,10 +8188,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C54">
         <v>16.611111099999999</v>
@@ -8195,10 +8202,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C55">
         <v>0.92210058900000003</v>
@@ -8209,10 +8216,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C56">
         <v>17.551680999999999</v>
@@ -8223,10 +8230,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C57">
         <v>0.97431240399999997</v>
@@ -8237,10 +8244,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C58">
         <v>397.86855100000002</v>
@@ -8251,10 +8258,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C59">
         <v>338.06271299999997</v>
@@ -8265,10 +8272,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C60">
         <v>1.5836709300000001E-3</v>
@@ -8279,10 +8286,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C61">
         <v>100000</v>
@@ -8293,10 +8300,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C62">
         <v>0.24</v>
@@ -8307,10 +8314,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C63">
         <v>1.2599788000000001E-2</v>
@@ -8321,10 +8328,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C64">
         <v>6.9938974099999999E-4</v>
@@ -8335,38 +8342,38 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>579</v>
+      </c>
+      <c r="B65" t="s">
         <v>580</v>
-      </c>
-      <c r="B65" t="s">
-        <v>581</v>
       </c>
       <c r="C65">
         <v>6.9793052661031293E-2</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66">
         <v>64.401511956420606</v>
       </c>
       <c r="D66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B67" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -8374,10 +8381,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C68">
         <v>1.2</v>
@@ -8388,10 +8395,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C69">
         <v>868.65245800000002</v>
@@ -8402,10 +8409,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C70">
         <v>3.78277175E-4</v>
@@ -8416,10 +8423,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C71">
         <v>16.417338999999998</v>
@@ -8430,10 +8437,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B72" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C72">
         <v>18.085230800000001</v>
@@ -8444,10 +8451,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C73">
         <v>100000</v>
@@ -8458,10 +8465,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B74" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C74">
         <v>6.0059867500000003E-2</v>
@@ -8472,10 +8479,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C75">
         <v>338.06271299999997</v>
@@ -8486,10 +8493,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B76" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C76">
         <v>16.147749099999999</v>
@@ -8500,10 +8507,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C77">
         <v>1.08371364</v>
@@ -8514,10 +8521,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C78" s="1">
         <v>1.3507940300000001E-5</v>
@@ -8528,10 +8535,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B79" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C79">
         <v>17.499535999999999</v>
@@ -8542,10 +8549,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B80" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C80">
         <v>18.014425500000002</v>
@@ -8556,10 +8563,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B81" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C81">
         <v>196666.66699999999</v>
@@ -8570,10 +8577,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C82">
         <v>397.86220400000002</v>
@@ -8584,10 +8591,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C83">
         <v>3.2004000000000001</v>
@@ -8598,10 +8605,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B84" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C84">
         <v>391.01516321622</v>
@@ -8612,35 +8619,35 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B85" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C85">
         <v>1.5</v>
       </c>
       <c r="D85" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C86" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B87" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C87">
         <v>1.00589</v>
@@ -8648,10 +8655,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C88">
         <v>1.1140699999999999</v>
@@ -8659,10 +8666,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C89">
         <v>2.9825200000000001</v>
@@ -8670,24 +8677,24 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C90">
         <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C91">
         <v>0.95</v>
@@ -8695,10 +8702,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C92">
         <v>0.33744501407333399</v>
@@ -8709,10 +8716,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C93">
         <v>0.79053988194818903</v>
@@ -8723,10 +8730,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C94">
         <v>0.61361525663460903</v>
@@ -8737,10 +8744,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C95">
         <v>0.1</v>
@@ -8751,10 +8758,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8762,10 +8769,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C97">
         <v>0.13808512128063699</v>
@@ -8776,10 +8783,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C98">
         <v>0.13808512128063699</v>
@@ -8790,10 +8797,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C99">
         <v>0.24425964550000001</v>
@@ -8804,10 +8811,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C100">
         <v>0.24425964550000001</v>
@@ -8818,10 +8825,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C101">
         <v>0.88390000000000002</v>
@@ -8832,10 +8839,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -8843,10 +8850,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B103" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C103">
         <v>1.8562601799999998E-2</v>
@@ -8857,10 +8864,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B104" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C104">
         <v>942.40432099999998</v>
@@ -8871,10 +8878,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B105" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C105">
         <v>2.2796017299999999E-4</v>
@@ -8885,10 +8892,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B106" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C106">
         <v>17.4934762</v>
@@ -8899,10 +8906,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C107">
         <v>18.0152006</v>
@@ -8913,10 +8920,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C108">
         <v>393.49675000000002</v>
@@ -8927,10 +8934,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B109" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C109">
         <v>0.79751498600000004</v>
@@ -8941,10 +8948,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C110">
         <v>1.1412235100000001</v>
@@ -8955,10 +8962,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B111" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C111">
         <v>0.91014285399999995</v>
@@ -8969,10 +8976,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C112">
         <v>200833.33300000001</v>
@@ -8983,10 +8990,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C113">
         <v>394.14797900000002</v>
@@ -8997,10 +9004,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B114" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C114">
         <v>941.87383799999998</v>
@@ -9011,10 +9018,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B115" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C115">
         <v>0.76200000000000001</v>
@@ -9025,7 +9032,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -9039,10 +9046,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B117" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -9053,10 +9060,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B118" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C118">
         <v>-499861.28100000002</v>
@@ -9067,10 +9074,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B119" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C119">
         <v>-3538253.82</v>
@@ -9081,10 +9088,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B120" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C120">
         <v>-7076507.6299999999</v>
@@ -9095,10 +9102,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B121" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C121">
         <v>-10614761.5</v>
@@ -9109,10 +9116,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C122">
         <v>-14153015.300000001</v>
@@ -9123,10 +9130,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B123" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C123">
         <v>-17691269.100000001</v>
@@ -9137,10 +9144,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B124" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C124">
         <v>-21229522.899999999</v>
@@ -9151,10 +9158,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C125">
         <v>-24767776.699999999</v>
@@ -9165,10 +9172,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B126" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C126">
         <v>-28306030.5</v>
@@ -9179,10 +9186,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C127">
         <v>-31844284.399999999</v>
@@ -9193,10 +9200,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B128" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C128">
         <v>-35382538.200000003</v>
@@ -9207,10 +9214,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B129" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C129">
         <v>-38920792</v>
@@ -9221,10 +9228,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B130" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C130">
         <v>100000</v>
@@ -9235,10 +9242,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B131" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C131">
         <v>100000</v>
@@ -9249,10 +9256,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B132" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C132">
         <v>100000</v>
@@ -9263,10 +9270,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B133" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C133">
         <v>100000</v>
@@ -9277,10 +9284,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B134" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C134">
         <v>100000</v>
@@ -9291,10 +9298,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B135" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C135">
         <v>100000</v>
@@ -9305,10 +9312,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B136" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C136">
         <v>100000</v>
@@ -9319,10 +9326,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B137" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C137">
         <v>100000</v>
@@ -9333,10 +9340,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B138" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C138">
         <v>100000</v>
@@ -9347,10 +9354,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B139" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C139">
         <v>100000</v>
@@ -9361,10 +9368,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B140" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C140">
         <v>100000</v>
@@ -9375,10 +9382,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B141" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C141">
         <v>100000</v>
@@ -9389,10 +9396,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B142" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C142">
         <v>100000</v>
@@ -9403,10 +9410,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B143" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C143">
         <v>384.82438000000002</v>
@@ -9417,10 +9424,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C144">
         <v>369.067115</v>
@@ -9431,10 +9438,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B145" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C145">
         <v>368.750856</v>
@@ -9445,10 +9452,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B146" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C146">
         <v>368.30863699999998</v>
@@ -9459,10 +9466,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B147" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C147">
         <v>367.76002699999998</v>
@@ -9473,10 +9480,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B148" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C148">
         <v>367.06280900000002</v>
@@ -9487,10 +9494,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C149">
         <v>366.15022599999998</v>
@@ -9501,10 +9508,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B150" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C150">
         <v>364.911607</v>
@@ -9515,10 +9522,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B151" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C151">
         <v>363.15387900000002</v>
@@ -9529,10 +9536,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B152" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C152">
         <v>360.524157</v>
@@ -9543,10 +9550,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B153" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C153">
         <v>356.36480399999999</v>
@@ -9557,10 +9564,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B154" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C154">
         <v>349.49561399999999</v>
@@ -9571,10 +9578,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B155" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C155">
         <v>338.06266900000003</v>
@@ -9585,10 +9592,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B156" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -9599,10 +9606,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B157" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -9613,10 +9620,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B158" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C158">
         <v>0.91863499500000001</v>
@@ -9627,10 +9634,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B159" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C159">
         <v>0.82398494200000005</v>
@@ -9641,10 +9648,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B160" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C160">
         <v>0.72947969899999998</v>
@@ -9655,10 +9662,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B161" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C161">
         <v>0.63517643000000001</v>
@@ -9669,10 +9676,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B162" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C162">
         <v>0.54116515200000004</v>
@@ -9683,10 +9690,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B163" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C163">
         <v>0.447593994</v>
@@ -9697,10 +9704,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C164">
         <v>0.354717693</v>
@@ -9711,10 +9718,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B165" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C165">
         <v>0.26298686999999998</v>
@@ -9725,10 +9732,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B166" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C166">
         <v>0.173166862</v>
@@ -9739,10 +9746,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B167" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C167">
         <v>8.6211263299999993E-2</v>
@@ -9753,10 +9760,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B168" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C168">
         <v>1.7415230900000001E-3</v>
@@ -9767,7 +9774,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -9781,10 +9788,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B170" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -9795,10 +9802,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B171" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C171">
         <v>44441.342199999999</v>
@@ -9809,10 +9816,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B172" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C172">
         <v>211454.54500000001</v>
@@ -9823,10 +9830,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B173" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C173">
         <v>422909.09100000001</v>
@@ -9837,10 +9844,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B174" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C174">
         <v>634363.63600000006</v>
@@ -9851,10 +9858,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B175" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C175">
         <v>845818.18200000003</v>
@@ -9865,10 +9872,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B176" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C176">
         <v>1057272.73</v>
@@ -9879,10 +9886,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B177" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C177">
         <v>1268727.27</v>
@@ -9893,10 +9900,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B178" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C178">
         <v>1480181.82</v>
@@ -9907,10 +9914,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B179" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C179">
         <v>1691636.36</v>
@@ -9921,10 +9928,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C180">
         <v>1903090.91</v>
@@ -9935,10 +9942,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B181" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C181">
         <v>2114545.4500000002</v>
@@ -9949,10 +9956,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B182" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C182">
         <v>2326000</v>
@@ -9963,10 +9970,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B183" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C183">
         <v>230000</v>
@@ -9977,10 +9984,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B184" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C184">
         <v>230000</v>
@@ -9991,10 +9998,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B185" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C185">
         <v>230000</v>
@@ -10005,10 +10012,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B186" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C186">
         <v>230000</v>
@@ -10019,10 +10026,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B187" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C187">
         <v>230000</v>
@@ -10033,10 +10040,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B188" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C188">
         <v>230000</v>
@@ -10047,10 +10054,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B189" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C189">
         <v>230000</v>
@@ -10061,10 +10068,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C190">
         <v>230000</v>
@@ -10075,10 +10082,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B191" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C191">
         <v>230000</v>
@@ -10089,10 +10096,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B192" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C192">
         <v>230000</v>
@@ -10103,10 +10110,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B193" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C193">
         <v>230000</v>
@@ -10117,10 +10124,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B194" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C194">
         <v>230000</v>
@@ -10131,10 +10138,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B195" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C195">
         <v>230000</v>
@@ -10145,10 +10152,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B196" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C196">
         <v>397.26480199999997</v>
@@ -10159,10 +10166,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B197" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C197">
         <v>397.85807499999999</v>
@@ -10173,10 +10180,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C198">
         <v>397.85923700000001</v>
@@ -10187,10 +10194,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B199" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C199">
         <v>397.86058000000003</v>
@@ -10201,10 +10208,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B200" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C200">
         <v>397.86179700000002</v>
@@ -10215,10 +10222,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B201" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C201">
         <v>397.86290500000001</v>
@@ -10229,10 +10236,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C202">
         <v>397.86391900000001</v>
@@ -10243,10 +10250,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B203" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C203">
         <v>397.86484899999999</v>
@@ -10257,10 +10264,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B204" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C204">
         <v>397.86570599999999</v>
@@ -10271,10 +10278,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B205" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C205">
         <v>397.86649799999998</v>
@@ -10285,10 +10292,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B206" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C206">
         <v>397.867232</v>
@@ -10299,10 +10306,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B207" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C207">
         <v>397.86791499999998</v>
@@ -10313,10 +10320,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B208" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C208">
         <v>397.86855100000002</v>
@@ -10327,10 +10334,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B209" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -10341,10 +10348,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B210" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -10355,10 +10362,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B211" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C211">
         <v>4.2972374399999997E-3</v>
@@ -10369,10 +10376,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B212" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C212">
         <v>9.7381102400000003E-3</v>
@@ -10383,10 +10390,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B213" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C213">
         <v>1.51791415E-2</v>
@@ -10397,10 +10404,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B214" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C214">
         <v>2.0620310199999999E-2</v>
@@ -10411,10 +10418,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B215" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C215">
         <v>2.6061598700000001E-2</v>
@@ -10425,10 +10432,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B216" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C216">
         <v>3.1502992399999999E-2</v>
@@ -10439,10 +10446,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B217" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C217">
         <v>3.6944478900000001E-2</v>
@@ -10453,10 +10460,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B218" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C218">
         <v>4.23860478E-2</v>
@@ -10467,10 +10474,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B219" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C219">
         <v>4.7827689899999998E-2</v>
@@ -10481,10 +10488,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B220" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C220">
         <v>5.3269397599999997E-2</v>
@@ -10495,10 +10502,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B221" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C221">
         <v>5.8711164099999998E-2</v>
@@ -10528,7 +10535,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -11303,7 +11310,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -11489,7 +11496,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -11855,7 +11862,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12121,7 +12128,7 @@
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C20">
         <v>9.7417259134479697E-2</v>
@@ -12135,7 +12142,7 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C21">
         <v>0.56363159312677602</v>
@@ -12146,7 +12153,7 @@
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -12184,7 +12191,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12545,7 +12552,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -14298,7 +14305,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -17020,7 +17027,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -17216,7 +17223,7 @@
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C15">
         <v>9.7417259000000006E-2</v>

--- a/DataExtraction1/baseline.xlsx
+++ b/DataExtraction1/baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\DataExtraction1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E888C83-3446-406E-AE6E-F4E996298C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D99FB9-36E3-4CF8-954B-0FE5537902D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" firstSheet="12" activeTab="18" xr2:uid="{9B5862E2-8272-40BA-9400-11932E361623}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" firstSheet="11" activeTab="16" xr2:uid="{9B5862E2-8272-40BA-9400-11932E361623}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump &amp; Pump Curves" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="739">
   <si>
     <t>Name</t>
   </si>
@@ -2252,15 +2252,6 @@
     <t>PALL</t>
   </si>
   <si>
-    <t>UClean2</t>
-  </si>
-  <si>
-    <t>ThermalEffectiveness2</t>
-  </si>
-  <si>
-    <t>ShellParallel2</t>
-  </si>
-  <si>
     <t>LiquidCompressibility</t>
   </si>
   <si>
@@ -2277,13 +2268,16 @@
   </si>
   <si>
     <t>PackingType</t>
+  </si>
+  <si>
+    <t>ThermalEffectiveness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2668,16 +2662,16 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2719,7 +2713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2747,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2859,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2873,7 +2867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2929,7 +2923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2943,7 +2937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +2951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2985,7 +2979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +2993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3013,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3040,14 +3034,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -3061,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3075,7 +3069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -3089,7 +3083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -3103,7 +3097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -3131,7 +3125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +3139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -3159,7 +3153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3173,7 +3167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -3187,7 +3181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -3228,14 +3222,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -3249,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -3263,7 +3257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -3291,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -3333,7 +3327,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -3361,7 +3355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -3375,7 +3369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -3389,7 +3383,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -3417,7 +3411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>337</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>337</v>
       </c>
@@ -3445,7 +3439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -3459,7 +3453,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -3487,7 +3481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -3501,7 +3495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3529,7 +3523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>337</v>
       </c>
@@ -3543,7 +3537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3557,7 +3551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -3585,7 +3579,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>337</v>
       </c>
@@ -3599,7 +3593,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>337</v>
       </c>
@@ -3613,7 +3607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>337</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -3641,7 +3635,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60">
         <f>COUNTA(_xlfn.UNIQUE(B2:B28))</f>
         <v>27</v>
@@ -3660,12 +3654,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -3679,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -3693,7 +3687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -3707,7 +3701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -3721,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -3735,7 +3729,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -3749,7 +3743,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -3763,7 +3757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -3774,7 +3768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -3785,7 +3779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -3796,7 +3790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -3807,7 +3801,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -3818,7 +3812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -3832,7 +3826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>337</v>
       </c>
@@ -3846,7 +3840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>337</v>
       </c>
@@ -3860,7 +3854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -3871,7 +3865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>337</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3932,7 +3926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>337</v>
       </c>
@@ -3943,7 +3937,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3954,7 +3948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -3979,7 +3973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>337</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>337</v>
       </c>
@@ -4001,7 +3995,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>337</v>
       </c>
@@ -4012,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -4034,7 +4028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>337</v>
       </c>
@@ -4048,7 +4042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -4075,14 +4069,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -4110,7 +4104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -4124,7 +4118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -4180,7 +4174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -4194,7 +4188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -4208,7 +4202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -4236,7 +4230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -4247,7 +4241,7 @@
         <v>1.3474699478094001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -4258,7 +4252,7 @@
         <v>1.63968401273394</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -4300,7 +4294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -4314,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>384</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>384</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>384</v>
       </c>
@@ -4356,7 +4350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -4370,7 +4364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -4384,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>384</v>
       </c>
@@ -4398,7 +4392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>384</v>
       </c>
@@ -4412,7 +4406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>384</v>
       </c>
@@ -4426,7 +4420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -4440,7 +4434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>384</v>
       </c>
@@ -4454,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -4468,7 +4462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>384</v>
       </c>
@@ -4495,13 +4489,13 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -4529,7 +4523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -4543,7 +4537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>386</v>
       </c>
@@ -4557,7 +4551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -4571,7 +4565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -4585,7 +4579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>386</v>
       </c>
@@ -4599,7 +4593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>386</v>
       </c>
@@ -4613,7 +4607,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>386</v>
       </c>
@@ -4627,7 +4621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>386</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -4652,7 +4646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -4666,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>386</v>
       </c>
@@ -4680,7 +4674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>386</v>
       </c>
@@ -4694,7 +4688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>386</v>
       </c>
@@ -4708,7 +4702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>386</v>
       </c>
@@ -4722,7 +4716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -4736,7 +4730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>386</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>386</v>
       </c>
@@ -4761,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>386</v>
       </c>
@@ -4775,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>386</v>
       </c>
@@ -4789,7 +4783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>386</v>
       </c>
@@ -4817,7 +4811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>386</v>
       </c>
@@ -4831,7 +4825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>386</v>
       </c>
@@ -4845,7 +4839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>386</v>
       </c>
@@ -4859,7 +4853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>386</v>
       </c>
@@ -4873,7 +4867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>386</v>
       </c>
@@ -4897,13 +4891,13 @@
       <selection activeCell="D1" sqref="D1:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -4917,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -4931,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -4945,7 +4939,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -4959,7 +4953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -4973,7 +4967,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -4987,7 +4981,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -5001,7 +4995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -5015,7 +5009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -5029,7 +5023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -5043,7 +5037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -5057,7 +5051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -5071,7 +5065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -5085,7 +5079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -5099,7 +5093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -5113,7 +5107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -5140,13 +5134,13 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -5160,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>389</v>
       </c>
@@ -5174,7 +5168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -5188,7 +5182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>389</v>
       </c>
@@ -5199,7 +5193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -5213,7 +5207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>389</v>
       </c>
@@ -5227,7 +5221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>389</v>
       </c>
@@ -5241,7 +5235,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>389</v>
       </c>
@@ -5255,7 +5249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>389</v>
       </c>
@@ -5269,7 +5263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>389</v>
       </c>
@@ -5283,7 +5277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>389</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>389</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>389</v>
       </c>
@@ -5322,7 +5316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>389</v>
       </c>
@@ -5336,7 +5330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>389</v>
       </c>
@@ -5350,7 +5344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>389</v>
       </c>
@@ -5364,7 +5358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>389</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>389</v>
       </c>
@@ -5392,7 +5386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>389</v>
       </c>
@@ -5406,7 +5400,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>389</v>
       </c>
@@ -5420,7 +5414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -5434,7 +5428,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -5448,7 +5442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>389</v>
       </c>
@@ -5462,7 +5456,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>389</v>
       </c>
@@ -5476,7 +5470,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -5490,7 +5484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>389</v>
       </c>
@@ -5504,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>389</v>
       </c>
@@ -5515,7 +5509,7 @@
         <v>0.81178439151672399</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>389</v>
       </c>
@@ -5529,7 +5523,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>389</v>
       </c>
@@ -5543,7 +5537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -5557,7 +5551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>389</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>389</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>389</v>
       </c>
@@ -5599,7 +5593,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>389</v>
       </c>
@@ -5613,7 +5607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>389</v>
       </c>
@@ -5627,7 +5621,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -5641,7 +5635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>389</v>
       </c>
@@ -5655,7 +5649,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>389</v>
       </c>
@@ -5669,7 +5663,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>389</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -5697,7 +5691,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>389</v>
       </c>
@@ -5711,7 +5705,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>389</v>
       </c>
@@ -5725,7 +5719,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>389</v>
       </c>
@@ -5739,7 +5733,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>389</v>
       </c>
@@ -5753,7 +5747,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>389</v>
       </c>
@@ -5767,7 +5761,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>389</v>
       </c>
@@ -5795,7 +5789,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>389</v>
       </c>
@@ -5809,7 +5803,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>389</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>389</v>
       </c>
@@ -5837,12 +5831,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>389</v>
       </c>
       <c r="B51" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C51">
         <v>1.7523773095930398E-2</v>
@@ -5851,7 +5845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>389</v>
       </c>
@@ -5865,7 +5859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -5879,7 +5873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>389</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>389</v>
       </c>
@@ -5907,7 +5901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -5921,7 +5915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -5935,7 +5929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>389</v>
       </c>
@@ -5949,7 +5943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>389</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>389</v>
       </c>
@@ -5977,7 +5971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>389</v>
       </c>
@@ -5991,7 +5985,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>389</v>
       </c>
@@ -6005,7 +5999,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>389</v>
       </c>
@@ -6019,7 +6013,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6033,7 +6027,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -6047,7 +6041,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -6061,7 +6055,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>389</v>
       </c>
@@ -6075,7 +6069,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>389</v>
       </c>
@@ -6089,7 +6083,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>389</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>389</v>
       </c>
@@ -6117,7 +6111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>389</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>389</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>389</v>
       </c>
@@ -6159,7 +6153,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>389</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -6187,7 +6181,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>389</v>
       </c>
@@ -6201,7 +6195,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>389</v>
       </c>
@@ -6215,7 +6209,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>389</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>389</v>
       </c>
@@ -6243,7 +6237,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>389</v>
       </c>
@@ -6257,7 +6251,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>389</v>
       </c>
@@ -6271,7 +6265,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>389</v>
       </c>
@@ -6285,7 +6279,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>389</v>
       </c>
@@ -6299,7 +6293,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>389</v>
       </c>
@@ -6313,7 +6307,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>389</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>389</v>
       </c>
@@ -6341,7 +6335,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>389</v>
       </c>
@@ -6355,7 +6349,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>389</v>
       </c>
@@ -6369,7 +6363,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -6383,7 +6377,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>389</v>
       </c>
@@ -6411,7 +6405,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>389</v>
       </c>
@@ -6425,7 +6419,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>389</v>
       </c>
@@ -6439,7 +6433,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>389</v>
       </c>
@@ -6453,7 +6447,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>389</v>
       </c>
@@ -6467,7 +6461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>389</v>
       </c>
@@ -6481,7 +6475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>389</v>
       </c>
@@ -6504,17 +6498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807DC15-71DF-43B1-B9D9-A2D1A025AD5D}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -6528,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -6542,7 +6536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -6553,7 +6547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>492</v>
       </c>
@@ -6567,7 +6561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>492</v>
       </c>
@@ -6581,7 +6575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>492</v>
       </c>
@@ -6595,7 +6589,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -6609,7 +6603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -6623,7 +6617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>492</v>
       </c>
@@ -6637,7 +6631,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>492</v>
       </c>
@@ -6648,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>492</v>
       </c>
@@ -6662,7 +6656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -6676,7 +6670,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>492</v>
       </c>
@@ -6690,7 +6684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -6704,7 +6698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>492</v>
       </c>
@@ -6718,7 +6712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>492</v>
       </c>
@@ -6732,7 +6726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>492</v>
       </c>
@@ -6746,7 +6740,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>492</v>
       </c>
@@ -6760,7 +6754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>492</v>
       </c>
@@ -6774,7 +6768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>492</v>
       </c>
@@ -6788,7 +6782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>492</v>
       </c>
@@ -6802,7 +6796,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>492</v>
       </c>
@@ -6816,7 +6810,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>492</v>
       </c>
@@ -6830,7 +6824,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -6844,7 +6838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -6855,7 +6849,7 @@
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -6863,13 +6857,13 @@
         <v>419</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D26" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -6883,7 +6877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
       <c r="A28" t="s">
         <v>492</v>
       </c>
@@ -6891,13 +6885,13 @@
         <v>422</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -6911,18 +6905,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>492</v>
       </c>
       <c r="B30" t="s">
         <v>446</v>
       </c>
+      <c r="C30">
+        <v>2.2221583824E-2</v>
+      </c>
       <c r="D30" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>492</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>492</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>492</v>
       </c>
@@ -6958,13 +6955,13 @@
         <v>449</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D33" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>492</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>492</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>492</v>
       </c>
@@ -7034,7 +7031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="F40" s="2"/>
     </row>
   </sheetData>
@@ -7051,13 +7048,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -7071,7 +7068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7099,7 +7096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -7127,7 +7124,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -7141,7 +7138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -7197,7 +7194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -7211,7 +7208,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -7225,12 +7222,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C13">
         <v>120695.569</v>
@@ -7239,7 +7236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -7253,7 +7250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -7267,7 +7264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7281,7 +7278,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -7295,7 +7292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -7309,7 +7306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>500</v>
       </c>
@@ -7323,7 +7320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>500</v>
       </c>
@@ -7337,7 +7334,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>500</v>
       </c>
@@ -7351,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>500</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>505</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>505</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>505</v>
       </c>
@@ -7421,7 +7418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -7435,7 +7432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -7449,7 +7446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -7472,18 +7469,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D01D4-E3B8-4E46-98EA-2EE36D193E52}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -7497,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -7525,7 +7522,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -7539,7 +7536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -7553,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7564,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7589,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -7603,7 +7600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -7617,7 +7614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -7631,7 +7628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -7656,7 +7653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -7670,7 +7667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -7681,7 +7678,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -7692,7 +7689,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -7703,7 +7700,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>510</v>
       </c>
@@ -7714,7 +7711,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -7725,7 +7722,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -7747,7 +7744,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>510</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -7769,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -7780,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>510</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>510</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -7878,7 +7875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>510</v>
       </c>
@@ -7892,7 +7889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -7906,7 +7903,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -7920,7 +7917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -7934,7 +7931,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>510</v>
       </c>
@@ -7948,7 +7945,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -7976,7 +7973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>510</v>
       </c>
@@ -7990,7 +7987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>510</v>
       </c>
@@ -8004,7 +8001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>510</v>
       </c>
@@ -8018,7 +8015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -8032,7 +8029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -8046,7 +8043,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -8060,7 +8057,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -8074,7 +8071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -8088,7 +8085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -8102,7 +8099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -8116,7 +8113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>510</v>
       </c>
@@ -8130,7 +8127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -8144,7 +8141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>510</v>
       </c>
@@ -8158,7 +8155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>510</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>510</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>510</v>
       </c>
@@ -8200,7 +8197,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>510</v>
       </c>
@@ -8214,7 +8211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>510</v>
       </c>
@@ -8228,7 +8225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>510</v>
       </c>
@@ -8242,7 +8239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -8256,7 +8253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>510</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -8284,7 +8281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>510</v>
       </c>
@@ -8298,7 +8295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>510</v>
       </c>
@@ -8312,7 +8309,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>510</v>
       </c>
@@ -8326,7 +8323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>510</v>
       </c>
@@ -8340,7 +8337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>579</v>
       </c>
@@ -8354,7 +8351,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>579</v>
       </c>
@@ -8368,7 +8365,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>579</v>
       </c>
@@ -8379,7 +8376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>579</v>
       </c>
@@ -8393,7 +8390,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>579</v>
       </c>
@@ -8407,7 +8404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>579</v>
       </c>
@@ -8421,7 +8418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>579</v>
       </c>
@@ -8435,7 +8432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>579</v>
       </c>
@@ -8449,7 +8446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>579</v>
       </c>
@@ -8463,7 +8460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>579</v>
       </c>
@@ -8477,7 +8474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>579</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>579</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>579</v>
       </c>
@@ -8519,7 +8516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>579</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>579</v>
       </c>
@@ -8547,7 +8544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>579</v>
       </c>
@@ -8561,7 +8558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>579</v>
       </c>
@@ -8575,7 +8572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>579</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>579</v>
       </c>
@@ -8603,7 +8600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>579</v>
       </c>
@@ -8617,7 +8614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>579</v>
       </c>
@@ -8631,18 +8628,18 @@
         <v>603</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>579</v>
       </c>
       <c r="B86" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C86" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>579</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>1.00589</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -8664,7 +8661,7 @@
         <v>1.1140699999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>579</v>
       </c>
@@ -8675,7 +8672,7 @@
         <v>2.9825200000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>579</v>
       </c>
@@ -8689,7 +8686,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>579</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>579</v>
       </c>
@@ -8714,7 +8711,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>579</v>
       </c>
@@ -8728,7 +8725,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>579</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>579</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>579</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>579</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>579</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>579</v>
       </c>
@@ -8823,7 +8820,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>579</v>
       </c>
@@ -8837,7 +8834,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>579</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>579</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>579</v>
       </c>
@@ -8876,7 +8873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>579</v>
       </c>
@@ -8890,7 +8887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>579</v>
       </c>
@@ -8904,7 +8901,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>579</v>
       </c>
@@ -8918,7 +8915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>579</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>579</v>
       </c>
@@ -8946,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>579</v>
       </c>
@@ -8960,7 +8957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>579</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>579</v>
       </c>
@@ -8988,7 +8985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>579</v>
       </c>
@@ -9002,7 +8999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>579</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>579</v>
       </c>
@@ -9030,7 +9027,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>505</v>
       </c>
@@ -9044,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>505</v>
       </c>
@@ -9058,7 +9055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>505</v>
       </c>
@@ -9072,7 +9069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>505</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>505</v>
       </c>
@@ -9100,7 +9097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>505</v>
       </c>
@@ -9114,7 +9111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -9128,7 +9125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>505</v>
       </c>
@@ -9142,7 +9139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>505</v>
       </c>
@@ -9156,7 +9153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>505</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>505</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>505</v>
       </c>
@@ -9198,7 +9195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -9212,7 +9209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>505</v>
       </c>
@@ -9226,7 +9223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>505</v>
       </c>
@@ -9240,7 +9237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>505</v>
       </c>
@@ -9254,7 +9251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>505</v>
       </c>
@@ -9268,7 +9265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>505</v>
       </c>
@@ -9282,7 +9279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>505</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>505</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>505</v>
       </c>
@@ -9324,7 +9321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>505</v>
       </c>
@@ -9338,7 +9335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>505</v>
       </c>
@@ -9352,7 +9349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>505</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>505</v>
       </c>
@@ -9380,7 +9377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>505</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>505</v>
       </c>
@@ -9408,7 +9405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>505</v>
       </c>
@@ -9422,7 +9419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>505</v>
       </c>
@@ -9436,7 +9433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>505</v>
       </c>
@@ -9450,7 +9447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>505</v>
       </c>
@@ -9464,7 +9461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>505</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>505</v>
       </c>
@@ -9492,7 +9489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>505</v>
       </c>
@@ -9506,7 +9503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>505</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>505</v>
       </c>
@@ -9534,7 +9531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>505</v>
       </c>
@@ -9548,7 +9545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>505</v>
       </c>
@@ -9562,7 +9559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>505</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>505</v>
       </c>
@@ -9590,7 +9587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>505</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>505</v>
       </c>
@@ -9618,7 +9615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>505</v>
       </c>
@@ -9632,7 +9629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>505</v>
       </c>
@@ -9646,7 +9643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>505</v>
       </c>
@@ -9660,7 +9657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>505</v>
       </c>
@@ -9674,7 +9671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>505</v>
       </c>
@@ -9688,7 +9685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>505</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>505</v>
       </c>
@@ -9716,7 +9713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>505</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>505</v>
       </c>
@@ -9744,7 +9741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>505</v>
       </c>
@@ -9758,7 +9755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>505</v>
       </c>
@@ -9772,7 +9769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>500</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>500</v>
       </c>
@@ -9800,7 +9797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>500</v>
       </c>
@@ -9814,7 +9811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>500</v>
       </c>
@@ -9828,7 +9825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>500</v>
       </c>
@@ -9842,7 +9839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>500</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -9870,7 +9867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>500</v>
       </c>
@@ -9884,7 +9881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -9898,7 +9895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>500</v>
       </c>
@@ -9912,7 +9909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>500</v>
       </c>
@@ -9926,7 +9923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>500</v>
       </c>
@@ -9954,7 +9951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>500</v>
       </c>
@@ -9968,7 +9965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>500</v>
       </c>
@@ -9982,7 +9979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>500</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>500</v>
       </c>
@@ -10010,7 +10007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>500</v>
       </c>
@@ -10024,7 +10021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>500</v>
       </c>
@@ -10038,7 +10035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>500</v>
       </c>
@@ -10052,7 +10049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>500</v>
       </c>
@@ -10066,7 +10063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>500</v>
       </c>
@@ -10080,7 +10077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>500</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>500</v>
       </c>
@@ -10122,7 +10119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>500</v>
       </c>
@@ -10136,7 +10133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>500</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>500</v>
       </c>
@@ -10164,7 +10161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -10178,7 +10175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>500</v>
       </c>
@@ -10192,7 +10189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -10220,7 +10217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>500</v>
       </c>
@@ -10234,7 +10231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>500</v>
       </c>
@@ -10248,7 +10245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>500</v>
       </c>
@@ -10262,7 +10259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>500</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>500</v>
       </c>
@@ -10290,7 +10287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>500</v>
       </c>
@@ -10304,7 +10301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>500</v>
       </c>
@@ -10318,7 +10315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>500</v>
       </c>
@@ -10332,7 +10329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>500</v>
       </c>
@@ -10346,7 +10343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>500</v>
       </c>
@@ -10360,7 +10357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>500</v>
       </c>
@@ -10374,7 +10371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>500</v>
       </c>
@@ -10388,7 +10385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>500</v>
       </c>
@@ -10402,7 +10399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>500</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>500</v>
       </c>
@@ -10430,7 +10427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>500</v>
       </c>
@@ -10444,7 +10441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>500</v>
       </c>
@@ -10458,7 +10455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>500</v>
       </c>
@@ -10472,7 +10469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>500</v>
       </c>
@@ -10486,7 +10483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>500</v>
       </c>
@@ -10500,7 +10497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>500</v>
       </c>
@@ -10527,13 +10524,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -10547,7 +10544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -10561,7 +10558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -10589,7 +10586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -10603,7 +10600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -10617,7 +10614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -10631,7 +10628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -10645,7 +10642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -10659,7 +10656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -10673,7 +10670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -10687,7 +10684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -10701,7 +10698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -10715,7 +10712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -10729,7 +10726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -10743,7 +10740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -10757,7 +10754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -10771,7 +10768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -10785,7 +10782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -10799,7 +10796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -10813,7 +10810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -10827,7 +10824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -10841,7 +10838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -10855,7 +10852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -10869,7 +10866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -10883,7 +10880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -10897,7 +10894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -10911,7 +10908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -10939,7 +10936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -10953,7 +10950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -10967,7 +10964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -10981,7 +10978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -10995,7 +10992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -11009,7 +11006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -11023,7 +11020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -11037,7 +11034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -11051,7 +11048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -11065,7 +11062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -11079,7 +11076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -11093,7 +11090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -11121,7 +11118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -11135,7 +11132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -11149,7 +11146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -11177,7 +11174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -11205,7 +11202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -11219,7 +11216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -11233,7 +11230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -11247,7 +11244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -11261,7 +11258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -11275,7 +11272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -11302,13 +11299,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -11322,7 +11319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -11336,7 +11333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -11350,7 +11347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -11364,7 +11361,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -11378,7 +11375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -11392,7 +11389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -11406,7 +11403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -11420,7 +11417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -11434,7 +11431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -11448,7 +11445,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -11462,7 +11459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -11489,12 +11486,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -11508,7 +11505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -11519,7 +11516,7 @@
         <v>3.8078423790982598</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -11530,7 +11527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -11541,7 +11538,7 @@
         <v>1.34832114274625</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -11552,7 +11549,7 @@
         <v>1.34832114274625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -11566,7 +11563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -11580,7 +11577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -11608,7 +11605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -11619,7 +11616,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -11633,7 +11630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -11647,7 +11644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -11658,7 +11655,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -11672,7 +11669,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -11686,7 +11683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -11700,7 +11697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -11714,7 +11711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -11728,7 +11725,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -11742,7 +11739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -11756,7 +11753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -11770,7 +11767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -11784,7 +11781,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -11798,7 +11795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -11812,7 +11809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -11826,7 +11823,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -11850,17 +11847,17 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -11874,7 +11871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -11888,7 +11885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -11902,7 +11899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -11916,7 +11913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -11930,7 +11927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -11944,7 +11941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -11958,7 +11955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -11972,7 +11969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -11986,7 +11983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -12000,7 +11997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -12014,7 +12011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -12028,7 +12025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -12039,7 +12036,7 @@
         <v>0.82282855300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -12053,7 +12050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -12067,7 +12064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -12081,7 +12078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -12095,7 +12092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -12109,7 +12106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -12123,12 +12120,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>732</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>9.7417259134479697E-2</v>
@@ -12137,29 +12134,29 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C21">
         <v>0.56363159312677602</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>734</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -12183,13 +12180,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -12203,7 +12200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -12217,7 +12214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -12231,7 +12228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -12245,7 +12242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -12259,7 +12256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -12273,7 +12270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -12287,7 +12284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -12301,7 +12298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -12315,7 +12312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -12329,7 +12326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -12343,7 +12340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -12357,7 +12354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -12371,7 +12368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -12385,7 +12382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -12396,7 +12393,7 @@
         <v>0.77618432500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -12410,7 +12407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -12424,7 +12421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -12435,7 +12432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -12449,7 +12446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -12460,7 +12457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -12474,7 +12471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -12488,7 +12485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -12502,7 +12499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -12516,7 +12513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -12543,14 +12540,14 @@
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -12564,7 +12561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12578,7 +12575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -12606,7 +12603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -12620,7 +12617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -12634,7 +12631,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -12648,7 +12645,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12662,7 +12659,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -12676,7 +12673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -12690,7 +12687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -12704,7 +12701,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -12718,7 +12715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -12732,7 +12729,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -12746,7 +12743,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -12760,7 +12757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -12774,7 +12771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -12788,7 +12785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -12802,7 +12799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -12816,7 +12813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -12830,7 +12827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -12844,7 +12841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -12858,7 +12855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -12872,7 +12869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -12886,7 +12883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -12900,7 +12897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -12914,7 +12911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -12928,7 +12925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -12942,7 +12939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -12956,7 +12953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -12970,7 +12967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -12984,7 +12981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -12998,7 +12995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -13012,7 +13009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -13026,7 +13023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13040,7 +13037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -13054,7 +13051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -13068,7 +13065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13082,7 +13079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -13096,7 +13093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -13110,7 +13107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13124,7 +13121,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -13138,7 +13135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -13152,7 +13149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -13166,7 +13163,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -13180,7 +13177,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -13194,7 +13191,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -13208,7 +13205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -13222,7 +13219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -13236,7 +13233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -13250,7 +13247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -13264,7 +13261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -13278,7 +13275,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -13292,7 +13289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -13306,7 +13303,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -13320,7 +13317,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -13334,7 +13331,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -13348,7 +13345,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -13362,7 +13359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -13376,7 +13373,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -13390,7 +13387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -13404,7 +13401,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -13418,7 +13415,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13432,7 +13429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -13446,7 +13443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -13460,7 +13457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -13474,7 +13471,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -13488,7 +13485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -13502,7 +13499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -13516,7 +13513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -13530,7 +13527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -13544,7 +13541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -13572,7 +13569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -13586,7 +13583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -13600,7 +13597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -13614,7 +13611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -13628,7 +13625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -13642,7 +13639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -13656,7 +13653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -13670,7 +13667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -13684,7 +13681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -13698,7 +13695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -13712,7 +13709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -13726,7 +13723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -13740,7 +13737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -13754,7 +13751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -13768,7 +13765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -13782,7 +13779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -13796,7 +13793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -13824,7 +13821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -13838,7 +13835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -13852,7 +13849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -13866,7 +13863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -13880,7 +13877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -13894,7 +13891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -13908,7 +13905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -13922,7 +13919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -13936,7 +13933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -13950,7 +13947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -13964,7 +13961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -13978,7 +13975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -13992,7 +13989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -14006,7 +14003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -14020,7 +14017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -14034,7 +14031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -14048,7 +14045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -14062,7 +14059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -14076,7 +14073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -14090,7 +14087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -14104,7 +14101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -14118,7 +14115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -14132,7 +14129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -14146,7 +14143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -14160,7 +14157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -14174,7 +14171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -14188,7 +14185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -14202,7 +14199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -14216,7 +14213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -14230,7 +14227,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -14244,43 +14241,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4">
       <c r="D230" s="1"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:4">
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:4">
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4">
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4">
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4">
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4">
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4">
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4">
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4">
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4">
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4">
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4">
       <c r="D265" s="1"/>
     </row>
   </sheetData>
@@ -14296,14 +14293,14 @@
       <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -14317,7 +14314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -14331,7 +14328,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -14345,7 +14342,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -14359,7 +14356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -14373,7 +14370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -14387,7 +14384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -14401,7 +14398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -14415,7 +14412,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -14429,7 +14426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -14443,7 +14440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -14457,7 +14454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -14471,7 +14468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -14485,7 +14482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -14499,7 +14496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -14513,7 +14510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -14527,7 +14524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -14541,7 +14538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -14555,7 +14552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -14569,7 +14566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -14583,7 +14580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -14611,7 +14608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -14625,7 +14622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -14639,7 +14636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -14653,7 +14650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -14667,7 +14664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -14681,7 +14678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -14695,7 +14692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -14709,7 +14706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -14723,7 +14720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -14737,7 +14734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -14751,7 +14748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -14765,7 +14762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -14779,7 +14776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -14793,7 +14790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -14807,7 +14804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -14821,7 +14818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -14835,7 +14832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14849,7 +14846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -14863,7 +14860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14877,7 +14874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -14891,7 +14888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -14905,7 +14902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -14919,7 +14916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -14933,7 +14930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -14947,7 +14944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -14961,7 +14958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -14975,7 +14972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -14989,7 +14986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -15003,7 +15000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -15017,7 +15014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -15031,7 +15028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -15045,7 +15042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -15059,7 +15056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -15073,7 +15070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -15087,7 +15084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -15101,7 +15098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -15115,7 +15112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -15129,7 +15126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -15143,7 +15140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -15157,7 +15154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -15171,7 +15168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -15185,7 +15182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -15199,7 +15196,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -15213,7 +15210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -15227,7 +15224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -15241,7 +15238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -15255,7 +15252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -15269,7 +15266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -15283,7 +15280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15297,7 +15294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -15311,7 +15308,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -15325,7 +15322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -15339,7 +15336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -15353,7 +15350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -15367,7 +15364,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -15381,7 +15378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -15395,7 +15392,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -15409,7 +15406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -15423,7 +15420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -15437,7 +15434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -15451,7 +15448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -15465,7 +15462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -15493,7 +15490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -15507,7 +15504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -15521,7 +15518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -15535,7 +15532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -15549,7 +15546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -15563,7 +15560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -15577,7 +15574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -15591,7 +15588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -15605,7 +15602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -15619,7 +15616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -15633,7 +15630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -15647,7 +15644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -15661,7 +15658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -15675,7 +15672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -15689,7 +15686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -15703,7 +15700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -15717,7 +15714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -15731,7 +15728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -15745,7 +15742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -15759,7 +15756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -15773,7 +15770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -15787,7 +15784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -15801,7 +15798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -15815,7 +15812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -15829,7 +15826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -15843,7 +15840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -15857,7 +15854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -15871,7 +15868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -15885,7 +15882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -15899,7 +15896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -15913,7 +15910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -15927,7 +15924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -15941,7 +15938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -15955,7 +15952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -15969,7 +15966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -15983,7 +15980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -15997,7 +15994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -16011,7 +16008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -16025,7 +16022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -16039,7 +16036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -16053,7 +16050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -16067,7 +16064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>38</v>
       </c>
@@ -16081,7 +16078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>38</v>
       </c>
@@ -16095,7 +16092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>38</v>
       </c>
@@ -16109,7 +16106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -16137,7 +16134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -16151,7 +16148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -16165,7 +16162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -16179,7 +16176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -16207,7 +16204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -16221,7 +16218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -16235,7 +16232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -16249,7 +16246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -16263,7 +16260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -16277,7 +16274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -16291,7 +16288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -16305,7 +16302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -16319,7 +16316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -16333,7 +16330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>38</v>
       </c>
@@ -16347,7 +16344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -16361,7 +16358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>38</v>
       </c>
@@ -16375,7 +16372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -16389,7 +16386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>38</v>
       </c>
@@ -16403,7 +16400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -16417,7 +16414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -16431,7 +16428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -16445,7 +16442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -16459,7 +16456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>38</v>
       </c>
@@ -16473,7 +16470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -16487,7 +16484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>38</v>
       </c>
@@ -16501,7 +16498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>38</v>
       </c>
@@ -16515,7 +16512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>38</v>
       </c>
@@ -16529,7 +16526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -16543,7 +16540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -16557,7 +16554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -16571,7 +16568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>38</v>
       </c>
@@ -16585,7 +16582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>38</v>
       </c>
@@ -16599,7 +16596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>38</v>
       </c>
@@ -16613,7 +16610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>38</v>
       </c>
@@ -16627,7 +16624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>38</v>
       </c>
@@ -16641,7 +16638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -16655,7 +16652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>38</v>
       </c>
@@ -16669,7 +16666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -16683,7 +16680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>38</v>
       </c>
@@ -16697,7 +16694,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>38</v>
       </c>
@@ -16711,7 +16708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -16725,7 +16722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -16739,7 +16736,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -16753,7 +16750,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -16767,7 +16764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -16781,7 +16778,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -16795,7 +16792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -16809,7 +16806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -16823,7 +16820,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -16837,7 +16834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -16851,7 +16848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -16865,7 +16862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -16879,7 +16876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -16893,7 +16890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -16907,7 +16904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -16921,7 +16918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -16935,7 +16932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -16949,7 +16946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -16963,7 +16960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -16977,7 +16974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -16991,7 +16988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -17015,17 +17012,17 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>715</v>
       </c>
@@ -17039,7 +17036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -17053,7 +17050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -17067,7 +17064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -17081,7 +17078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -17095,7 +17092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -17109,7 +17106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -17123,7 +17120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -17137,7 +17134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -17151,7 +17148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -17165,7 +17162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -17176,7 +17173,7 @@
         <v>0.82282855300000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -17190,7 +17187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -17204,7 +17201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -17218,12 +17215,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>732</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>9.7417259000000006E-2</v>
